--- a/excel/Tabaela.xlsx
+++ b/excel/Tabaela.xlsx
@@ -428,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -436,10 +436,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>44859.694590694446</v>
-      </c>
-      <c r="D2">
-        <v>8133</v>
+        <v>44859.72455939815</v>
       </c>
     </row>
   </sheetData>
